--- a/Module 13 - Financial Instruments Impairment of Financial Assets.xlsx
+++ b/Module 13 - Financial Instruments Impairment of Financial Assets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukdeloitte-my.sharepoint.com/personal/bcornish_deloitte_co_uk/Documents/ICAS/TPS/FINREP/Bob's FINREP Class Notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="642" documentId="8_{66ABF7C2-4A79-4C92-9154-5CDDA38CCA95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F13ABA7B-A964-4F4E-B2A3-298702F10094}"/>
+  <xr:revisionPtr revIDLastSave="645" documentId="8_{66ABF7C2-4A79-4C92-9154-5CDDA38CCA95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BCB4A08-11D7-4BBB-B58E-14E28C13A208}"/>
   <bookViews>
-    <workbookView xWindow="4230" yWindow="3360" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{1A21BB57-B72A-4B6D-A03C-3DEA4EE88D72}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="12420" windowHeight="11385" xr2:uid="{1A21BB57-B72A-4B6D-A03C-3DEA4EE88D72}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="159">
   <si>
     <t>Main</t>
   </si>
@@ -558,13 +558,16 @@
   <si>
     <t>IFRS 9 applies an expected loss model, in that future expected impairment losses are recognised when as asset it inititally recognised and the asjusted at subsequent year - end dates</t>
   </si>
+  <si>
+    <t>WSE13.2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -647,7 +650,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
@@ -1102,11 +1105,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1D39C55-CC23-4751-89B9-7BBC74E0476B}">
-  <dimension ref="B2:C2"/>
+  <dimension ref="B2:C3"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1121,10 +1122,16 @@
         <v>100</v>
       </c>
     </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" location="'Module 13'!A1" display="Module 13" xr:uid="{3DA0DFB0-933F-4880-88ED-F6BAB84E0CBC}"/>
     <hyperlink ref="C2" location="WSE13.1!A1" display="WSE13.1" xr:uid="{918599F7-0089-485C-8B16-DCE74818F5D4}"/>
+    <hyperlink ref="C3" location="WSE13.2!A1" display="WSE13.2" xr:uid="{55D1D06C-3AAC-4F8E-B665-1276A334BA83}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1135,9 +1142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{273AB614-673B-408B-A5C5-4DEEC7FC9824}">
   <dimension ref="A1:F209"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F107" sqref="F107"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2339,9 +2344,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5824122E-588D-4603-9678-1F93F4202F80}">
   <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2897,9 +2900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB9B314B-59CC-4CB4-A96C-FC134F754618}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
